--- a/01_result/SGP歴代成績.xlsx
+++ b/01_result/SGP歴代成績.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Desktop\パズル大会\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_puzzle\01_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD61CA7-CC79-4BA1-AB20-D5DFF71736C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7875" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +16,7 @@
     <sheet name="SGP" sheetId="1" r:id="rId1"/>
     <sheet name="PGP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1"/>
@@ -211,6 +212,22 @@
   </si>
   <si>
     <t>JPNRank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Turkey</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -584,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,6 +690,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1138,616 +1158,750 @@
       <c r="I6" s="18">
         <v>220</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="25">
+        <f>SUM(C6:I6)</f>
+        <v>1694</v>
+      </c>
       <c r="K6" s="19">
         <f>SUM(C6:I6)/I3</f>
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="29">
+        <v>22</v>
+      </c>
+      <c r="D7" s="29">
+        <v>19</v>
+      </c>
+      <c r="E7" s="29">
+        <v>21</v>
+      </c>
+      <c r="F7" s="29">
+        <v>17</v>
+      </c>
+      <c r="G7" s="29">
+        <v>12</v>
+      </c>
+      <c r="H7" s="29">
+        <v>15</v>
+      </c>
+      <c r="I7" s="29">
+        <v>18</v>
+      </c>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="1">
         <v>2015</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="9">
         <v>6</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="9">
         <v>7</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J10" s="20">
         <v>8</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
+      <c r="K11" s="27"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C12" s="14">
         <v>135</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="15">
         <v>235</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>290</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="15">
         <v>200</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="15">
         <v>240</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="15">
         <v>260</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="15">
         <v>310</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="15">
         <v>345</v>
       </c>
-      <c r="K11" s="24">
-        <f>SUM(C11:J11)</f>
+      <c r="K12" s="24">
+        <f>SUM(C12:J12)</f>
         <v>2015</v>
       </c>
-      <c r="L11" s="16">
-        <f>K11/J9</f>
+      <c r="L12" s="16">
+        <f>K12/J10</f>
         <v>251.875</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C13" s="17">
         <v>339</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="18">
         <v>293</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E13" s="18">
         <v>165</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F13" s="18">
         <v>200</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G13" s="18">
         <v>176</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H13" s="18">
         <v>168</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="18">
         <v>136</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J13" s="18">
         <v>95</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="19">
-        <f>SUM(C12:J12)/J9</f>
+      <c r="K13" s="25">
+        <f>SUM(C13:J13)</f>
+        <v>1572</v>
+      </c>
+      <c r="L13" s="19">
+        <f>SUM(C13:J13)/J10</f>
         <v>196.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="1">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="29">
+        <v>27</v>
+      </c>
+      <c r="D14" s="29">
+        <v>24</v>
+      </c>
+      <c r="E14" s="29">
+        <v>16</v>
+      </c>
+      <c r="F14" s="29">
+        <v>16</v>
+      </c>
+      <c r="G14" s="29">
+        <v>17</v>
+      </c>
+      <c r="H14" s="29">
+        <v>18</v>
+      </c>
+      <c r="I14" s="29">
+        <v>13</v>
+      </c>
+      <c r="J14" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="1">
         <v>2016</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E17" s="9">
         <v>3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F17" s="9">
         <v>4</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G17" s="9">
         <v>5</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H17" s="9">
         <v>6</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I17" s="9">
         <v>7</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J17" s="20">
         <v>8</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="7" t="s">
+    <row r="18" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="5" t="s">
+      <c r="K18" s="27"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C19" s="14">
         <v>200</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E19" s="15">
         <v>319</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F19" s="15">
         <v>275</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G19" s="15">
         <v>308</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H19" s="15">
         <v>306</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I19" s="15">
         <v>352</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J19" s="15">
         <v>226</v>
       </c>
-      <c r="K17" s="24">
-        <f>SUM(C17:J17)</f>
+      <c r="K19" s="24">
+        <f>SUM(C19:J19)</f>
         <v>1986</v>
       </c>
-      <c r="L17" s="16">
-        <f>K17/7</f>
+      <c r="L19" s="16">
+        <f>K19/7</f>
         <v>283.71428571428572</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="6" t="s">
+    <row r="20" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C20" s="17">
         <v>211</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E20" s="18">
         <v>103</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F20" s="18">
         <v>128</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G20" s="18">
         <v>107</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H20" s="18">
         <v>111</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I20" s="18">
         <v>91</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J20" s="18">
         <v>151</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="19">
-        <f>SUM(C18:J18)/7</f>
+      <c r="K20" s="25">
+        <f>SUM(C20:J20)</f>
+        <v>902</v>
+      </c>
+      <c r="L20" s="19">
+        <f>SUM(C20:J20)/7</f>
         <v>128.85714285714286</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="1">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="29">
+        <v>19</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29">
+        <v>13</v>
+      </c>
+      <c r="F21" s="29">
+        <v>11</v>
+      </c>
+      <c r="G21" s="29">
+        <v>11</v>
+      </c>
+      <c r="H21" s="29">
+        <v>13</v>
+      </c>
+      <c r="I21" s="29">
+        <v>13</v>
+      </c>
+      <c r="J21" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="1">
         <v>2017</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="3" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C24" s="8">
         <v>1</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D24" s="9">
         <v>2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E24" s="9">
         <v>3</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F24" s="9">
         <v>4</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G24" s="9">
         <v>5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H24" s="9">
         <v>6</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I24" s="9">
         <v>7</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J24" s="20">
         <v>8</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L24" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="7" t="s">
+    <row r="25" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="5" t="s">
+      <c r="K25" s="27"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C26" s="14">
         <v>358</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D26" s="15">
         <v>302</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E26" s="15">
         <v>358</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F26" s="15">
         <v>339</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G26" s="15">
         <v>270</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H26" s="15">
         <v>291</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I26" s="15">
         <v>361</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J26" s="15">
         <v>386</v>
       </c>
-      <c r="K23" s="24">
-        <f>SUM(C23:J23)</f>
+      <c r="K26" s="24">
+        <f>SUM(C26:J26)</f>
         <v>2665</v>
       </c>
-      <c r="L23" s="16">
-        <f>K23/J21</f>
+      <c r="L26" s="16">
+        <f>K26/J24</f>
         <v>333.125</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="6" t="s">
+    <row r="27" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C27" s="17">
         <v>108</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D27" s="18">
         <v>79</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E27" s="18">
         <v>81</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F27" s="18">
         <v>96</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G27" s="18">
         <v>164</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H27" s="18">
         <v>138</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I27" s="18">
         <v>80</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J27" s="18">
         <v>76</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="19">
-        <f>SUM(C24:J24)/J21</f>
+      <c r="K27" s="25">
+        <f>SUM(C27:J27)</f>
+        <v>822</v>
+      </c>
+      <c r="L27" s="19">
+        <f>SUM(C27:J27)/J24</f>
         <v>102.75</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="28" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C28" s="29">
         <v>10</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D28" s="29">
         <v>11</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E28" s="29">
         <v>11</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F28" s="29">
         <v>11</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G28" s="29">
         <v>15</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H28" s="29">
         <v>14</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I28" s="29">
         <v>12</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J28" s="29">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="1">
+    <row r="30" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="1">
         <v>2018</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="3" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C31" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D31" s="9">
         <v>2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E31" s="9">
         <v>3</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F31" s="9">
         <v>4</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G31" s="9">
         <v>5</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H31" s="9">
         <v>6</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I31" s="9">
         <v>7</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J31" s="20">
         <v>8</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K31" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L31" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="7" t="s">
+    <row r="32" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="5" t="s">
+      <c r="E32" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C33" s="14">
         <v>284</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D33" s="15">
         <v>393</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="24">
-        <f>SUM(C30:J30)</f>
-        <v>677</v>
-      </c>
-      <c r="L30" s="16">
-        <f>K30/J28</f>
-        <v>84.625</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="6" t="s">
+      <c r="E33" s="15">
+        <v>243</v>
+      </c>
+      <c r="F33" s="15">
+        <v>372</v>
+      </c>
+      <c r="G33" s="15">
+        <v>337</v>
+      </c>
+      <c r="H33" s="15">
+        <v>429</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="24">
+        <f>SUM(C33:J33)</f>
+        <v>2058</v>
+      </c>
+      <c r="L33" s="16">
+        <f>K33/J31</f>
+        <v>257.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C34" s="17">
         <v>140</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D34" s="18">
         <v>66</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="19">
-        <f>SUM(C31:J31)/J28</f>
-        <v>25.75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="28" t="s">
+      <c r="E34" s="18">
+        <v>193</v>
+      </c>
+      <c r="F34" s="18">
+        <v>82</v>
+      </c>
+      <c r="G34" s="18">
+        <v>108</v>
+      </c>
+      <c r="H34" s="18">
+        <v>53</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="25">
+        <f>SUM(C34:J34)</f>
+        <v>642</v>
+      </c>
+      <c r="L34" s="19">
+        <f>SUM(C34:J34)/J31</f>
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C35" s="29">
         <v>14</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D35" s="29">
+        <v>10</v>
+      </c>
+      <c r="E35" s="29">
+        <v>16</v>
+      </c>
+      <c r="F35" s="29">
+        <v>15</v>
+      </c>
+      <c r="G35" s="29">
+        <v>12</v>
+      </c>
+      <c r="H35" s="30">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
